--- a/StructureDefinition-profile-Communication.xlsx
+++ b/StructureDefinition-profile-Communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.647827-06:00</t>
+    <t>2026-02-09T22:05:43.0296153-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -855,17 +855,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.recipient|0.0.1-snapshot-3}
+    <t>Communication.recipient.extension:recipient</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Communication.recipient from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The entity (e.g. person, organization, clinical information system, care team or device) which is the target of the communication.</t>
-  </si>
-  <si>
-    <t>If receipts need to be tracked by an individual, a separate resource instance will need to be created for each recipient.  Multiple recipient communications are intended where either receipts are not tracked (e.g. a mass mail-out) or a receipt is captured in aggregate (all emails confirmed received by a particular time).</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint,http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Communication.recipient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Communication.recipient` is mapped to FHIR R4 element `Communication.recipient`.</t>
   </si>
   <si>
     <t>Communication.recipient.reference</t>
@@ -967,14 +974,20 @@
     <t>Communication.sender.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.sender|0.0.1-snapshot-3}
-</t>
+    <t>Communication.sender.extension:sender</t>
+  </si>
+  <si>
+    <t>sender</t>
   </si>
   <si>
     <t>Cross-version extension for Communication.sender from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The entity (e.g. person, organization, clinical information system, or device) which is the source of the communication.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Communication.sender` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Communication.sender` is mapped to FHIR R4 element `Communication.sender`.</t>
   </si>
   <si>
     <t>Communication.sender.reference</t>
@@ -1054,11 +1067,20 @@
     <t>Communication.payload.extension</t>
   </si>
   <si>
+    <t>Communication.payload.extension:payload</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.payload|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Communication.payload from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Communication.payload` is mapped to FHIR R4 element `Communication.payload`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1424,7 +1446,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.64453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.64453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -4688,7 +4710,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -4786,12 +4808,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4800,7 +4824,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4812,16 +4836,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4897,10 +4921,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4926,13 +4950,13 @@
         <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4982,7 +5006,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4991,7 +5015,7 @@
         <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>98</v>
@@ -5008,10 +5032,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5037,13 +5061,13 @@
         <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5069,13 +5093,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5093,7 +5117,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5119,10 +5143,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5148,13 +5172,13 @@
         <v>144</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5204,7 +5228,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5225,15 +5249,15 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5259,13 +5283,13 @@
         <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5315,7 +5339,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5341,10 +5365,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5367,13 +5391,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5424,7 +5448,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5450,10 +5474,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5559,10 +5583,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5570,7 +5594,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -5668,12 +5692,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5694,15 +5720,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5777,10 +5805,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5806,13 +5834,13 @@
         <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5862,7 +5890,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5871,7 +5899,7 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>98</v>
@@ -5888,10 +5916,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5917,13 +5945,13 @@
         <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5949,13 +5977,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -5973,7 +6001,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5999,10 +6027,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6028,13 +6056,13 @@
         <v>144</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6084,7 +6112,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6105,15 +6133,15 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6139,13 +6167,13 @@
         <v>258</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6195,7 +6223,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6221,10 +6249,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6250,13 +6278,13 @@
         <v>189</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6285,28 +6313,28 @@
         <v>193</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6321,21 +6349,21 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6358,13 +6386,13 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6415,7 +6443,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6430,21 +6458,21 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6467,13 +6495,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6524,7 +6552,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6550,10 +6578,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6659,10 +6687,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6670,7 +6698,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -6766,12 +6794,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6792,15 +6822,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6858,7 +6890,7 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>137</v>
@@ -6875,14 +6907,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6904,10 +6936,10 @@
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>135</v>
@@ -6962,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6988,10 +7020,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7014,13 +7046,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7071,7 +7103,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -7097,10 +7129,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7123,13 +7155,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7180,7 +7212,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7195,7 +7227,7 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-profile-Communication.xlsx
+++ b/StructureDefinition-profile-Communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0296153-06:00</t>
+    <t>2026-02-17T14:42:26.7644059-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -872,7 +872,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Communication.recipient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Communication.recipient` is mapped to FHIR R4 element `Communication.recipient`.</t>
+Element `Communication.recipient` has is mapped to FHIR R4 element `Communication.recipient`, but has no comparisons.</t>
   </si>
   <si>
     <t>Communication.recipient.reference</t>
@@ -987,7 +987,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Communication.sender` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Communication.sender` is mapped to FHIR R4 element `Communication.sender`.</t>
+Element `Communication.sender` has is mapped to FHIR R4 element `Communication.sender`, but has no comparisons.</t>
   </si>
   <si>
     <t>Communication.sender.reference</t>
@@ -1080,7 +1080,7 @@
     <t>Cross-version extension for Communication.payload from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Communication.payload` is mapped to FHIR R4 element `Communication.payload`.</t>
+    <t>Element `Communication.payload` has is mapped to FHIR R4 element `Communication.payload`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-profile-Communication.xlsx
+++ b/StructureDefinition-profile-Communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7644059-06:00</t>
+    <t>2026-02-20T11:59:20.758492-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Communication|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Communication</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -686,7 +686,7 @@
     <t>Codes for communication mediums such as phone, fax, email, in person, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode</t>
   </si>
   <si>
     <t>Communication.subject</t>
@@ -861,7 +861,7 @@
     <t>recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1073,7 +1073,7 @@
     <t>payload</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.payload|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.payload}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Communication.xlsx
+++ b/StructureDefinition-profile-Communication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.758492-06:00</t>
+    <t>2026-02-21T13:36:54.1635888-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Communication</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Communication|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -686,7 +686,7 @@
     <t>Codes for communication mediums such as phone, fax, email, in person, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationMode|3.0.0</t>
   </si>
   <si>
     <t>Communication.subject</t>
@@ -814,7 +814,79 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>Communication.recipient.id</t>
+    <t>Communication.sender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1|Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|HealthcareService|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Message sender</t>
+  </si>
+  <si>
+    <t>The entity (e.g. person, organization, clinical information system, or device) which was the source of the communication.</t>
+  </si>
+  <si>
+    <t>Communication.reasonCode</t>
+  </si>
+  <si>
+    <t>Indication for message</t>
+  </si>
+  <si>
+    <t>The reason or justification for the communication.</t>
+  </si>
+  <si>
+    <t>Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Codes for describing reasons for the occurrence of a communication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>Communication.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Why was communication done?</t>
+  </si>
+  <si>
+    <t>Indicates another resource whose existence justifies this communication.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>Communication.payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Message payload</t>
+  </si>
+  <si>
+    <t>Text, attachment(s), or resource(s) that was communicated to the recipient.</t>
+  </si>
+  <si>
+    <t>Communication.payload.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -833,7 +905,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Communication.recipient.extension</t>
+    <t>Communication.payload.extension</t>
   </si>
   <si>
     <t>Extension</t>
@@ -846,241 +918,26 @@
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Communication.recipient.extension:recipient</t>
-  </si>
-  <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>Communication.payload.extension:payload</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.payload|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Communication.recipient from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint,http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Communication.recipient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Communication.recipient` has is mapped to FHIR R4 element `Communication.recipient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Communication.recipient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Communication.recipient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Communication.recipient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Communication.recipient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Communication.sender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|HealthcareService|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Message sender</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, or device) which was the source of the communication.</t>
-  </si>
-  <si>
-    <t>Communication.sender.id</t>
-  </si>
-  <si>
-    <t>Communication.sender.extension</t>
-  </si>
-  <si>
-    <t>Communication.sender.extension:sender</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Communication.sender from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Communication.sender` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Communication.sender` has is mapped to FHIR R4 element `Communication.sender`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Communication.sender.reference</t>
-  </si>
-  <si>
-    <t>Communication.sender.type</t>
-  </si>
-  <si>
-    <t>Communication.sender.identifier</t>
-  </si>
-  <si>
-    <t>Communication.sender.display</t>
-  </si>
-  <si>
-    <t>Communication.reasonCode</t>
-  </si>
-  <si>
-    <t>Indication for message</t>
-  </si>
-  <si>
-    <t>The reason or justification for the communication.</t>
-  </si>
-  <si>
-    <t>Textual reasons can be captured using reasonCode.text.</t>
-  </si>
-  <si>
-    <t>Codes for describing reasons for the occurrence of a communication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>Communication.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Why was communication done?</t>
-  </si>
-  <si>
-    <t>Indicates another resource whose existence justifies this communication.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>Communication.payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Message payload</t>
-  </si>
-  <si>
-    <t>Text, attachment(s), or resource(s) that was communicated to the recipient.</t>
-  </si>
-  <si>
-    <t>Communication.payload.id</t>
-  </si>
-  <si>
-    <t>Communication.payload.extension</t>
-  </si>
-  <si>
-    <t>Communication.payload.extension:payload</t>
-  </si>
-  <si>
-    <t>payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Communication.payload}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for Communication.payload from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Communication.payload` has is mapped to FHIR R4 element `Communication.payload`, but has no comparisons.</t>
+    <t>Element `Communication.payload` is mapped to FHIR R4 element `Communication.payload` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1437,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1446,7 +1303,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.64453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1474,7 +1331,7 @@
     <col min="26" max="26" width="55.70703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="31.34375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4673,7 +4530,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4685,24 +4542,24 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4722,18 +4579,20 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4758,31 +4617,31 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4794,16 +4653,16 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
@@ -4811,11 +4670,9 @@
         <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4824,7 +4681,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4833,20 +4690,18 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4750,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4907,16 +4762,16 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -4935,7 +4790,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4944,20 +4799,18 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5006,16 +4859,16 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>98</v>
@@ -5027,15 +4880,15 @@
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5055,20 +4908,18 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5093,13 +4944,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5117,7 +4968,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5129,7 +4980,7 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5138,15 +4989,15 @@
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>129</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5157,7 +5008,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5166,20 +5017,18 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5216,31 +5065,29 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5249,17 +5096,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5268,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5277,19 +5126,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5339,19 +5188,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5360,47 +5209,51 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5448,36 +5301,36 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5485,7 +5338,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -5500,13 +5353,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5557,10 +5410,10 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>86</v>
@@ -5569,7 +5422,7 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5578,15 +5431,15 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5609,13 +5462,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5654,19 +5507,19 @@
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5678,1561 +5531,15 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
     </row>
